--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_237.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_237.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d75661-Reviews-Eden_Roc_Inn_Suites-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>646</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>681</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Eden-Roc-Inn-Suites.h984307.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_237.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_237.xlsx
@@ -9756,7 +9756,7 @@
         <v>17488</v>
       </c>
       <c r="B2" t="n">
-        <v>142924</v>
+        <v>174136</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -9821,7 +9821,7 @@
         <v>17488</v>
       </c>
       <c r="B3" t="n">
-        <v>142925</v>
+        <v>174137</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -9886,7 +9886,7 @@
         <v>17488</v>
       </c>
       <c r="B4" t="n">
-        <v>142926</v>
+        <v>174138</v>
       </c>
       <c r="C4" t="s">
         <v>66</v>
@@ -9951,7 +9951,7 @@
         <v>17488</v>
       </c>
       <c r="B5" t="n">
-        <v>142927</v>
+        <v>174139</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -10016,7 +10016,7 @@
         <v>17488</v>
       </c>
       <c r="B6" t="n">
-        <v>142928</v>
+        <v>174140</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -10152,7 +10152,7 @@
         <v>17488</v>
       </c>
       <c r="B8" t="n">
-        <v>142929</v>
+        <v>174141</v>
       </c>
       <c r="C8" t="s">
         <v>97</v>
@@ -10213,7 +10213,7 @@
         <v>17488</v>
       </c>
       <c r="B9" t="n">
-        <v>142930</v>
+        <v>174142</v>
       </c>
       <c r="C9" t="s">
         <v>106</v>
@@ -10274,7 +10274,7 @@
         <v>17488</v>
       </c>
       <c r="B10" t="n">
-        <v>142931</v>
+        <v>174143</v>
       </c>
       <c r="C10" t="s">
         <v>114</v>
@@ -10416,7 +10416,7 @@
         <v>17488</v>
       </c>
       <c r="B12" t="n">
-        <v>142932</v>
+        <v>174144</v>
       </c>
       <c r="C12" t="s">
         <v>134</v>
@@ -10481,7 +10481,7 @@
         <v>17488</v>
       </c>
       <c r="B13" t="n">
-        <v>142933</v>
+        <v>174145</v>
       </c>
       <c r="C13" t="s">
         <v>141</v>
@@ -10546,7 +10546,7 @@
         <v>17488</v>
       </c>
       <c r="B14" t="n">
-        <v>142934</v>
+        <v>174146</v>
       </c>
       <c r="C14" t="s">
         <v>150</v>
@@ -10676,7 +10676,7 @@
         <v>17488</v>
       </c>
       <c r="B16" t="n">
-        <v>142935</v>
+        <v>174147</v>
       </c>
       <c r="C16" t="s">
         <v>167</v>
@@ -10747,7 +10747,7 @@
         <v>17488</v>
       </c>
       <c r="B17" t="n">
-        <v>142936</v>
+        <v>174148</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
@@ -10818,7 +10818,7 @@
         <v>17488</v>
       </c>
       <c r="B18" t="n">
-        <v>142937</v>
+        <v>174149</v>
       </c>
       <c r="C18" t="s">
         <v>183</v>
@@ -10883,7 +10883,7 @@
         <v>17488</v>
       </c>
       <c r="B19" t="n">
-        <v>142938</v>
+        <v>174150</v>
       </c>
       <c r="C19" t="s">
         <v>190</v>
@@ -10948,7 +10948,7 @@
         <v>17488</v>
       </c>
       <c r="B20" t="n">
-        <v>142939</v>
+        <v>174151</v>
       </c>
       <c r="C20" t="s">
         <v>197</v>
@@ -11013,7 +11013,7 @@
         <v>17488</v>
       </c>
       <c r="B21" t="n">
-        <v>142940</v>
+        <v>174152</v>
       </c>
       <c r="C21" t="s">
         <v>207</v>
@@ -11139,7 +11139,7 @@
         <v>17488</v>
       </c>
       <c r="B23" t="n">
-        <v>142941</v>
+        <v>174153</v>
       </c>
       <c r="C23" t="s">
         <v>224</v>
@@ -11273,7 +11273,7 @@
         <v>17488</v>
       </c>
       <c r="B25" t="n">
-        <v>142942</v>
+        <v>174154</v>
       </c>
       <c r="C25" t="s">
         <v>242</v>
@@ -11399,7 +11399,7 @@
         <v>17488</v>
       </c>
       <c r="B27" t="n">
-        <v>142943</v>
+        <v>174155</v>
       </c>
       <c r="C27" t="s">
         <v>258</v>
@@ -11529,7 +11529,7 @@
         <v>17488</v>
       </c>
       <c r="B29" t="n">
-        <v>142944</v>
+        <v>174156</v>
       </c>
       <c r="C29" t="s">
         <v>271</v>
@@ -11600,7 +11600,7 @@
         <v>17488</v>
       </c>
       <c r="B30" t="n">
-        <v>142945</v>
+        <v>174157</v>
       </c>
       <c r="C30" t="s">
         <v>278</v>
@@ -11726,7 +11726,7 @@
         <v>17488</v>
       </c>
       <c r="B32" t="n">
-        <v>142946</v>
+        <v>174158</v>
       </c>
       <c r="C32" t="s">
         <v>291</v>
@@ -11791,7 +11791,7 @@
         <v>17488</v>
       </c>
       <c r="B33" t="n">
-        <v>142947</v>
+        <v>174159</v>
       </c>
       <c r="C33" t="s">
         <v>297</v>
@@ -11852,7 +11852,7 @@
         <v>17488</v>
       </c>
       <c r="B34" t="n">
-        <v>142948</v>
+        <v>174160</v>
       </c>
       <c r="C34" t="s">
         <v>302</v>
@@ -11913,7 +11913,7 @@
         <v>17488</v>
       </c>
       <c r="B35" t="n">
-        <v>142949</v>
+        <v>174161</v>
       </c>
       <c r="C35" t="s">
         <v>307</v>
@@ -11974,7 +11974,7 @@
         <v>17488</v>
       </c>
       <c r="B36" t="n">
-        <v>142950</v>
+        <v>174162</v>
       </c>
       <c r="C36" t="s">
         <v>314</v>
@@ -12035,7 +12035,7 @@
         <v>17488</v>
       </c>
       <c r="B37" t="n">
-        <v>142951</v>
+        <v>174163</v>
       </c>
       <c r="C37" t="s">
         <v>320</v>
@@ -12096,7 +12096,7 @@
         <v>17488</v>
       </c>
       <c r="B38" t="n">
-        <v>142952</v>
+        <v>174164</v>
       </c>
       <c r="C38" t="s">
         <v>326</v>
@@ -12157,7 +12157,7 @@
         <v>17488</v>
       </c>
       <c r="B39" t="n">
-        <v>142953</v>
+        <v>174165</v>
       </c>
       <c r="C39" t="s">
         <v>332</v>
@@ -12218,7 +12218,7 @@
         <v>17488</v>
       </c>
       <c r="B40" t="n">
-        <v>142954</v>
+        <v>142970</v>
       </c>
       <c r="C40" t="s">
         <v>338</v>
@@ -12401,7 +12401,7 @@
         <v>17488</v>
       </c>
       <c r="B43" t="n">
-        <v>142955</v>
+        <v>174166</v>
       </c>
       <c r="C43" t="s">
         <v>356</v>
@@ -12462,7 +12462,7 @@
         <v>17488</v>
       </c>
       <c r="B44" t="n">
-        <v>142956</v>
+        <v>174167</v>
       </c>
       <c r="C44" t="s">
         <v>361</v>
@@ -12596,7 +12596,7 @@
         <v>17488</v>
       </c>
       <c r="B46" t="n">
-        <v>142957</v>
+        <v>174168</v>
       </c>
       <c r="C46" t="s">
         <v>380</v>
@@ -12661,7 +12661,7 @@
         <v>17488</v>
       </c>
       <c r="B47" t="n">
-        <v>142958</v>
+        <v>174169</v>
       </c>
       <c r="C47" t="s">
         <v>389</v>
@@ -12726,7 +12726,7 @@
         <v>17488</v>
       </c>
       <c r="B48" t="n">
-        <v>142959</v>
+        <v>174170</v>
       </c>
       <c r="C48" t="s">
         <v>398</v>
@@ -12791,7 +12791,7 @@
         <v>17488</v>
       </c>
       <c r="B49" t="n">
-        <v>142960</v>
+        <v>174171</v>
       </c>
       <c r="C49" t="s">
         <v>407</v>
@@ -12856,7 +12856,7 @@
         <v>17488</v>
       </c>
       <c r="B50" t="n">
-        <v>142961</v>
+        <v>174172</v>
       </c>
       <c r="C50" t="s">
         <v>413</v>
@@ -12927,7 +12927,7 @@
         <v>17488</v>
       </c>
       <c r="B51" t="n">
-        <v>142962</v>
+        <v>174173</v>
       </c>
       <c r="C51" t="s">
         <v>422</v>
@@ -12992,7 +12992,7 @@
         <v>17488</v>
       </c>
       <c r="B52" t="n">
-        <v>142963</v>
+        <v>174174</v>
       </c>
       <c r="C52" t="s">
         <v>432</v>
@@ -13059,7 +13059,7 @@
         <v>17488</v>
       </c>
       <c r="B53" t="n">
-        <v>142964</v>
+        <v>174175</v>
       </c>
       <c r="C53" t="s">
         <v>441</v>
@@ -13195,7 +13195,7 @@
         <v>17488</v>
       </c>
       <c r="B55" t="n">
-        <v>142965</v>
+        <v>174176</v>
       </c>
       <c r="C55" t="s">
         <v>459</v>
@@ -13266,7 +13266,7 @@
         <v>17488</v>
       </c>
       <c r="B56" t="n">
-        <v>142966</v>
+        <v>174177</v>
       </c>
       <c r="C56" t="s">
         <v>468</v>
@@ -13331,7 +13331,7 @@
         <v>17488</v>
       </c>
       <c r="B57" t="n">
-        <v>142967</v>
+        <v>174178</v>
       </c>
       <c r="C57" t="s">
         <v>478</v>
@@ -13396,7 +13396,7 @@
         <v>17488</v>
       </c>
       <c r="B58" t="n">
-        <v>142968</v>
+        <v>174179</v>
       </c>
       <c r="C58" t="s">
         <v>487</v>
@@ -13461,7 +13461,7 @@
         <v>17488</v>
       </c>
       <c r="B59" t="n">
-        <v>142969</v>
+        <v>174180</v>
       </c>
       <c r="C59" t="s">
         <v>496</v>
@@ -13526,7 +13526,7 @@
         <v>17488</v>
       </c>
       <c r="B60" t="n">
-        <v>142970</v>
+        <v>174181</v>
       </c>
       <c r="C60" t="s">
         <v>505</v>
@@ -13591,7 +13591,7 @@
         <v>17488</v>
       </c>
       <c r="B61" t="n">
-        <v>142971</v>
+        <v>174182</v>
       </c>
       <c r="C61" t="s">
         <v>511</v>
@@ -13656,7 +13656,7 @@
         <v>17488</v>
       </c>
       <c r="B62" t="n">
-        <v>142972</v>
+        <v>174183</v>
       </c>
       <c r="C62" t="s">
         <v>520</v>
@@ -13721,7 +13721,7 @@
         <v>17488</v>
       </c>
       <c r="B63" t="n">
-        <v>142973</v>
+        <v>174184</v>
       </c>
       <c r="C63" t="s">
         <v>529</v>
@@ -13851,7 +13851,7 @@
         <v>17488</v>
       </c>
       <c r="B65" t="n">
-        <v>142974</v>
+        <v>174185</v>
       </c>
       <c r="C65" t="s">
         <v>545</v>
@@ -13916,7 +13916,7 @@
         <v>17488</v>
       </c>
       <c r="B66" t="n">
-        <v>142975</v>
+        <v>174186</v>
       </c>
       <c r="C66" t="s">
         <v>553</v>
@@ -13981,7 +13981,7 @@
         <v>17488</v>
       </c>
       <c r="B67" t="n">
-        <v>142976</v>
+        <v>174187</v>
       </c>
       <c r="C67" t="s">
         <v>559</v>
@@ -14111,7 +14111,7 @@
         <v>17488</v>
       </c>
       <c r="B69" t="n">
-        <v>142977</v>
+        <v>174188</v>
       </c>
       <c r="C69" t="s">
         <v>577</v>
@@ -14176,7 +14176,7 @@
         <v>17488</v>
       </c>
       <c r="B70" t="n">
-        <v>142978</v>
+        <v>174189</v>
       </c>
       <c r="C70" t="s">
         <v>584</v>
@@ -14247,7 +14247,7 @@
         <v>17488</v>
       </c>
       <c r="B71" t="n">
-        <v>142979</v>
+        <v>174190</v>
       </c>
       <c r="C71" t="s">
         <v>591</v>
@@ -14312,7 +14312,7 @@
         <v>17488</v>
       </c>
       <c r="B72" t="n">
-        <v>142980</v>
+        <v>174191</v>
       </c>
       <c r="C72" t="s">
         <v>598</v>
@@ -14377,7 +14377,7 @@
         <v>17488</v>
       </c>
       <c r="B73" t="n">
-        <v>142981</v>
+        <v>174192</v>
       </c>
       <c r="C73" t="s">
         <v>607</v>
@@ -14442,7 +14442,7 @@
         <v>17488</v>
       </c>
       <c r="B74" t="n">
-        <v>142982</v>
+        <v>174193</v>
       </c>
       <c r="C74" t="s">
         <v>613</v>
@@ -14507,7 +14507,7 @@
         <v>17488</v>
       </c>
       <c r="B75" t="n">
-        <v>142983</v>
+        <v>174194</v>
       </c>
       <c r="C75" t="s">
         <v>622</v>
@@ -14572,7 +14572,7 @@
         <v>17488</v>
       </c>
       <c r="B76" t="n">
-        <v>142984</v>
+        <v>174195</v>
       </c>
       <c r="C76" t="s">
         <v>632</v>
@@ -14637,7 +14637,7 @@
         <v>17488</v>
       </c>
       <c r="B77" t="n">
-        <v>142985</v>
+        <v>174196</v>
       </c>
       <c r="C77" t="s">
         <v>641</v>
@@ -14702,7 +14702,7 @@
         <v>17488</v>
       </c>
       <c r="B78" t="n">
-        <v>142986</v>
+        <v>174197</v>
       </c>
       <c r="C78" t="s">
         <v>651</v>
@@ -14767,7 +14767,7 @@
         <v>17488</v>
       </c>
       <c r="B79" t="n">
-        <v>142987</v>
+        <v>174198</v>
       </c>
       <c r="C79" t="s">
         <v>657</v>
@@ -14962,7 +14962,7 @@
         <v>17488</v>
       </c>
       <c r="B82" t="n">
-        <v>142988</v>
+        <v>174199</v>
       </c>
       <c r="C82" t="s">
         <v>676</v>
@@ -15027,7 +15027,7 @@
         <v>17488</v>
       </c>
       <c r="B83" t="n">
-        <v>142989</v>
+        <v>174200</v>
       </c>
       <c r="C83" t="s">
         <v>685</v>
@@ -15098,7 +15098,7 @@
         <v>17488</v>
       </c>
       <c r="B84" t="n">
-        <v>142990</v>
+        <v>174201</v>
       </c>
       <c r="C84" t="s">
         <v>694</v>
@@ -15163,7 +15163,7 @@
         <v>17488</v>
       </c>
       <c r="B85" t="n">
-        <v>142991</v>
+        <v>174202</v>
       </c>
       <c r="C85" t="s">
         <v>701</v>
@@ -15366,7 +15366,7 @@
         <v>17488</v>
       </c>
       <c r="B88" t="n">
-        <v>142992</v>
+        <v>142974</v>
       </c>
       <c r="C88" t="s">
         <v>726</v>
@@ -15431,7 +15431,7 @@
         <v>17488</v>
       </c>
       <c r="B89" t="n">
-        <v>142993</v>
+        <v>174203</v>
       </c>
       <c r="C89" t="s">
         <v>732</v>
@@ -15561,7 +15561,7 @@
         <v>17488</v>
       </c>
       <c r="B91" t="n">
-        <v>142994</v>
+        <v>174204</v>
       </c>
       <c r="C91" t="s">
         <v>748</v>
@@ -15626,7 +15626,7 @@
         <v>17488</v>
       </c>
       <c r="B92" t="n">
-        <v>142995</v>
+        <v>174205</v>
       </c>
       <c r="C92" t="s">
         <v>754</v>
@@ -15691,7 +15691,7 @@
         <v>17488</v>
       </c>
       <c r="B93" t="n">
-        <v>142996</v>
+        <v>174206</v>
       </c>
       <c r="C93" t="s">
         <v>761</v>
@@ -15762,7 +15762,7 @@
         <v>17488</v>
       </c>
       <c r="B94" t="n">
-        <v>142997</v>
+        <v>174207</v>
       </c>
       <c r="C94" t="s">
         <v>770</v>
@@ -15892,7 +15892,7 @@
         <v>17488</v>
       </c>
       <c r="B96" t="n">
-        <v>142998</v>
+        <v>174208</v>
       </c>
       <c r="C96" t="s">
         <v>783</v>
@@ -15963,7 +15963,7 @@
         <v>17488</v>
       </c>
       <c r="B97" t="n">
-        <v>142999</v>
+        <v>174209</v>
       </c>
       <c r="C97" t="s">
         <v>788</v>
@@ -16028,7 +16028,7 @@
         <v>17488</v>
       </c>
       <c r="B98" t="n">
-        <v>143000</v>
+        <v>174210</v>
       </c>
       <c r="C98" t="s">
         <v>795</v>
@@ -16093,7 +16093,7 @@
         <v>17488</v>
       </c>
       <c r="B99" t="n">
-        <v>143001</v>
+        <v>174211</v>
       </c>
       <c r="C99" t="s">
         <v>804</v>
@@ -16219,7 +16219,7 @@
         <v>17488</v>
       </c>
       <c r="B101" t="n">
-        <v>143002</v>
+        <v>174212</v>
       </c>
       <c r="C101" t="s">
         <v>820</v>
@@ -16288,7 +16288,7 @@
         <v>17488</v>
       </c>
       <c r="B102" t="n">
-        <v>143003</v>
+        <v>174213</v>
       </c>
       <c r="C102" t="s">
         <v>830</v>
@@ -16353,7 +16353,7 @@
         <v>17488</v>
       </c>
       <c r="B103" t="n">
-        <v>143004</v>
+        <v>174214</v>
       </c>
       <c r="C103" t="s">
         <v>837</v>
@@ -16418,7 +16418,7 @@
         <v>17488</v>
       </c>
       <c r="B104" t="n">
-        <v>143005</v>
+        <v>174215</v>
       </c>
       <c r="C104" t="s">
         <v>843</v>
@@ -16552,7 +16552,7 @@
         <v>17488</v>
       </c>
       <c r="B106" t="n">
-        <v>143006</v>
+        <v>174216</v>
       </c>
       <c r="C106" t="s">
         <v>861</v>
@@ -16682,7 +16682,7 @@
         <v>17488</v>
       </c>
       <c r="B108" t="n">
-        <v>143007</v>
+        <v>174217</v>
       </c>
       <c r="C108" t="s">
         <v>878</v>
@@ -16812,7 +16812,7 @@
         <v>17488</v>
       </c>
       <c r="B110" t="n">
-        <v>143008</v>
+        <v>174218</v>
       </c>
       <c r="C110" t="s">
         <v>891</v>
@@ -16877,7 +16877,7 @@
         <v>17488</v>
       </c>
       <c r="B111" t="n">
-        <v>143009</v>
+        <v>174219</v>
       </c>
       <c r="C111" t="s">
         <v>900</v>
@@ -16942,7 +16942,7 @@
         <v>17488</v>
       </c>
       <c r="B112" t="n">
-        <v>143010</v>
+        <v>174220</v>
       </c>
       <c r="C112" t="s">
         <v>909</v>
@@ -17078,7 +17078,7 @@
         <v>17488</v>
       </c>
       <c r="B114" t="n">
-        <v>143011</v>
+        <v>174221</v>
       </c>
       <c r="C114" t="s">
         <v>924</v>
@@ -17208,7 +17208,7 @@
         <v>17488</v>
       </c>
       <c r="B116" t="n">
-        <v>143012</v>
+        <v>174222</v>
       </c>
       <c r="C116" t="s">
         <v>942</v>
@@ -17273,7 +17273,7 @@
         <v>17488</v>
       </c>
       <c r="B117" t="n">
-        <v>143013</v>
+        <v>174223</v>
       </c>
       <c r="C117" t="s">
         <v>952</v>
@@ -17342,7 +17342,7 @@
         <v>17488</v>
       </c>
       <c r="B118" t="n">
-        <v>143014</v>
+        <v>174224</v>
       </c>
       <c r="C118" t="s">
         <v>959</v>
@@ -17407,7 +17407,7 @@
         <v>17488</v>
       </c>
       <c r="B119" t="n">
-        <v>143015</v>
+        <v>174225</v>
       </c>
       <c r="C119" t="s">
         <v>965</v>
@@ -17468,7 +17468,7 @@
         <v>17488</v>
       </c>
       <c r="B120" t="n">
-        <v>143016</v>
+        <v>174226</v>
       </c>
       <c r="C120" t="s">
         <v>974</v>
@@ -17602,7 +17602,7 @@
         <v>17488</v>
       </c>
       <c r="B122" t="n">
-        <v>143017</v>
+        <v>174227</v>
       </c>
       <c r="C122" t="s">
         <v>988</v>
@@ -17732,7 +17732,7 @@
         <v>17488</v>
       </c>
       <c r="B124" t="n">
-        <v>143018</v>
+        <v>174228</v>
       </c>
       <c r="C124" t="s">
         <v>1004</v>
@@ -17797,7 +17797,7 @@
         <v>17488</v>
       </c>
       <c r="B125" t="n">
-        <v>143019</v>
+        <v>174229</v>
       </c>
       <c r="C125" t="s">
         <v>1011</v>
@@ -17868,7 +17868,7 @@
         <v>17488</v>
       </c>
       <c r="B126" t="n">
-        <v>143020</v>
+        <v>174230</v>
       </c>
       <c r="C126" t="s">
         <v>1018</v>
@@ -17933,7 +17933,7 @@
         <v>17488</v>
       </c>
       <c r="B127" t="n">
-        <v>143021</v>
+        <v>174231</v>
       </c>
       <c r="C127" t="s">
         <v>1024</v>
@@ -17998,7 +17998,7 @@
         <v>17488</v>
       </c>
       <c r="B128" t="n">
-        <v>143022</v>
+        <v>174232</v>
       </c>
       <c r="C128" t="s">
         <v>1031</v>
@@ -18128,7 +18128,7 @@
         <v>17488</v>
       </c>
       <c r="B130" t="n">
-        <v>143023</v>
+        <v>174233</v>
       </c>
       <c r="C130" t="s">
         <v>1050</v>
@@ -18193,7 +18193,7 @@
         <v>17488</v>
       </c>
       <c r="B131" t="n">
-        <v>143024</v>
+        <v>174234</v>
       </c>
       <c r="C131" t="s">
         <v>1056</v>
@@ -18258,7 +18258,7 @@
         <v>17488</v>
       </c>
       <c r="B132" t="n">
-        <v>143025</v>
+        <v>142980</v>
       </c>
       <c r="C132" t="s">
         <v>1063</v>
@@ -18323,7 +18323,7 @@
         <v>17488</v>
       </c>
       <c r="B133" t="n">
-        <v>143026</v>
+        <v>174235</v>
       </c>
       <c r="C133" t="s">
         <v>1071</v>
@@ -18388,7 +18388,7 @@
         <v>17488</v>
       </c>
       <c r="B134" t="n">
-        <v>143027</v>
+        <v>174236</v>
       </c>
       <c r="C134" t="s">
         <v>1077</v>
@@ -18524,7 +18524,7 @@
         <v>17488</v>
       </c>
       <c r="B136" t="n">
-        <v>143028</v>
+        <v>174237</v>
       </c>
       <c r="C136" t="s">
         <v>1096</v>
@@ -18595,7 +18595,7 @@
         <v>17488</v>
       </c>
       <c r="B137" t="n">
-        <v>143029</v>
+        <v>174238</v>
       </c>
       <c r="C137" t="s">
         <v>1106</v>
@@ -18660,7 +18660,7 @@
         <v>17488</v>
       </c>
       <c r="B138" t="n">
-        <v>143030</v>
+        <v>174239</v>
       </c>
       <c r="C138" t="s">
         <v>1115</v>
@@ -18725,7 +18725,7 @@
         <v>17488</v>
       </c>
       <c r="B139" t="n">
-        <v>143031</v>
+        <v>174240</v>
       </c>
       <c r="C139" t="s">
         <v>1122</v>
@@ -18792,7 +18792,7 @@
         <v>17488</v>
       </c>
       <c r="B140" t="n">
-        <v>143032</v>
+        <v>174241</v>
       </c>
       <c r="C140" t="s">
         <v>1129</v>
@@ -18857,7 +18857,7 @@
         <v>17488</v>
       </c>
       <c r="B141" t="n">
-        <v>143033</v>
+        <v>174242</v>
       </c>
       <c r="C141" t="s">
         <v>1138</v>
@@ -18926,7 +18926,7 @@
         <v>17488</v>
       </c>
       <c r="B142" t="n">
-        <v>143034</v>
+        <v>174243</v>
       </c>
       <c r="C142" t="s">
         <v>1144</v>
@@ -19060,7 +19060,7 @@
         <v>17488</v>
       </c>
       <c r="B144" t="n">
-        <v>143035</v>
+        <v>174244</v>
       </c>
       <c r="C144" t="s">
         <v>1156</v>
@@ -19125,7 +19125,7 @@
         <v>17488</v>
       </c>
       <c r="B145" t="n">
-        <v>143036</v>
+        <v>174245</v>
       </c>
       <c r="C145" t="s">
         <v>1161</v>
@@ -19267,7 +19267,7 @@
         <v>17488</v>
       </c>
       <c r="B147" t="n">
-        <v>143037</v>
+        <v>174246</v>
       </c>
       <c r="C147" t="s">
         <v>1179</v>
@@ -19332,7 +19332,7 @@
         <v>17488</v>
       </c>
       <c r="B148" t="n">
-        <v>143038</v>
+        <v>174247</v>
       </c>
       <c r="C148" t="s">
         <v>1186</v>
@@ -19397,7 +19397,7 @@
         <v>17488</v>
       </c>
       <c r="B149" t="n">
-        <v>143039</v>
+        <v>174248</v>
       </c>
       <c r="C149" t="s">
         <v>1193</v>
@@ -19462,7 +19462,7 @@
         <v>17488</v>
       </c>
       <c r="B150" t="n">
-        <v>143040</v>
+        <v>174249</v>
       </c>
       <c r="C150" t="s">
         <v>1202</v>
@@ -19592,7 +19592,7 @@
         <v>17488</v>
       </c>
       <c r="B152" t="n">
-        <v>143041</v>
+        <v>174250</v>
       </c>
       <c r="C152" t="s">
         <v>1215</v>
@@ -19657,7 +19657,7 @@
         <v>17488</v>
       </c>
       <c r="B153" t="n">
-        <v>143042</v>
+        <v>174251</v>
       </c>
       <c r="C153" t="s">
         <v>1224</v>
@@ -19728,7 +19728,7 @@
         <v>17488</v>
       </c>
       <c r="B154" t="n">
-        <v>143043</v>
+        <v>174252</v>
       </c>
       <c r="C154" t="s">
         <v>1232</v>
@@ -19793,7 +19793,7 @@
         <v>17488</v>
       </c>
       <c r="B155" t="n">
-        <v>143044</v>
+        <v>174253</v>
       </c>
       <c r="C155" t="s">
         <v>1241</v>
@@ -19858,7 +19858,7 @@
         <v>17488</v>
       </c>
       <c r="B156" t="n">
-        <v>143045</v>
+        <v>174254</v>
       </c>
       <c r="C156" t="s">
         <v>1248</v>
@@ -19996,7 +19996,7 @@
         <v>17488</v>
       </c>
       <c r="B158" t="n">
-        <v>143046</v>
+        <v>174255</v>
       </c>
       <c r="C158" t="s">
         <v>1267</v>
@@ -20061,7 +20061,7 @@
         <v>17488</v>
       </c>
       <c r="B159" t="n">
-        <v>143047</v>
+        <v>174256</v>
       </c>
       <c r="C159" t="s">
         <v>1274</v>
@@ -20126,7 +20126,7 @@
         <v>17488</v>
       </c>
       <c r="B160" t="n">
-        <v>143048</v>
+        <v>174257</v>
       </c>
       <c r="C160" t="s">
         <v>1283</v>
@@ -20262,7 +20262,7 @@
         <v>17488</v>
       </c>
       <c r="B162" t="n">
-        <v>143049</v>
+        <v>174258</v>
       </c>
       <c r="C162" t="s">
         <v>1299</v>
@@ -20398,7 +20398,7 @@
         <v>17488</v>
       </c>
       <c r="B164" t="n">
-        <v>143050</v>
+        <v>174259</v>
       </c>
       <c r="C164" t="s">
         <v>1317</v>
@@ -20463,7 +20463,7 @@
         <v>17488</v>
       </c>
       <c r="B165" t="n">
-        <v>143051</v>
+        <v>174260</v>
       </c>
       <c r="C165" t="s">
         <v>1326</v>
@@ -20530,7 +20530,7 @@
         <v>17488</v>
       </c>
       <c r="B166" t="n">
-        <v>143052</v>
+        <v>174261</v>
       </c>
       <c r="C166" t="s">
         <v>1333</v>
@@ -20595,7 +20595,7 @@
         <v>17488</v>
       </c>
       <c r="B167" t="n">
-        <v>143053</v>
+        <v>174262</v>
       </c>
       <c r="C167" t="s">
         <v>1340</v>
@@ -20660,7 +20660,7 @@
         <v>17488</v>
       </c>
       <c r="B168" t="n">
-        <v>143054</v>
+        <v>174263</v>
       </c>
       <c r="C168" t="s">
         <v>1349</v>
@@ -20790,7 +20790,7 @@
         <v>17488</v>
       </c>
       <c r="B170" t="n">
-        <v>143055</v>
+        <v>174264</v>
       </c>
       <c r="C170" t="s">
         <v>1363</v>
@@ -20855,7 +20855,7 @@
         <v>17488</v>
       </c>
       <c r="B171" t="n">
-        <v>143056</v>
+        <v>174265</v>
       </c>
       <c r="C171" t="s">
         <v>1371</v>
@@ -20926,7 +20926,7 @@
         <v>17488</v>
       </c>
       <c r="B172" t="n">
-        <v>143057</v>
+        <v>174266</v>
       </c>
       <c r="C172" t="s">
         <v>1380</v>
@@ -21062,7 +21062,7 @@
         <v>17488</v>
       </c>
       <c r="B174" t="n">
-        <v>143058</v>
+        <v>174267</v>
       </c>
       <c r="C174" t="s">
         <v>1394</v>
@@ -21257,7 +21257,7 @@
         <v>17488</v>
       </c>
       <c r="B177" t="n">
-        <v>143059</v>
+        <v>174268</v>
       </c>
       <c r="C177" t="s">
         <v>1418</v>
@@ -21322,7 +21322,7 @@
         <v>17488</v>
       </c>
       <c r="B178" t="n">
-        <v>143060</v>
+        <v>174269</v>
       </c>
       <c r="C178" t="s">
         <v>1424</v>
@@ -21452,7 +21452,7 @@
         <v>17488</v>
       </c>
       <c r="B180" t="n">
-        <v>143061</v>
+        <v>174270</v>
       </c>
       <c r="C180" t="s">
         <v>1438</v>
@@ -21517,7 +21517,7 @@
         <v>17488</v>
       </c>
       <c r="B181" t="n">
-        <v>143062</v>
+        <v>174271</v>
       </c>
       <c r="C181" t="s">
         <v>1444</v>
@@ -21582,7 +21582,7 @@
         <v>17488</v>
       </c>
       <c r="B182" t="n">
-        <v>143063</v>
+        <v>174272</v>
       </c>
       <c r="C182" t="s">
         <v>1453</v>
@@ -21647,7 +21647,7 @@
         <v>17488</v>
       </c>
       <c r="B183" t="n">
-        <v>143064</v>
+        <v>174273</v>
       </c>
       <c r="C183" t="s">
         <v>1462</v>
@@ -21712,7 +21712,7 @@
         <v>17488</v>
       </c>
       <c r="B184" t="n">
-        <v>143065</v>
+        <v>174274</v>
       </c>
       <c r="C184" t="s">
         <v>1471</v>
@@ -21777,7 +21777,7 @@
         <v>17488</v>
       </c>
       <c r="B185" t="n">
-        <v>143066</v>
+        <v>174275</v>
       </c>
       <c r="C185" t="s">
         <v>1477</v>
@@ -21911,7 +21911,7 @@
         <v>17488</v>
       </c>
       <c r="B187" t="n">
-        <v>143067</v>
+        <v>174276</v>
       </c>
       <c r="C187" t="s">
         <v>1496</v>
@@ -21980,7 +21980,7 @@
         <v>17488</v>
       </c>
       <c r="B188" t="n">
-        <v>143068</v>
+        <v>174277</v>
       </c>
       <c r="C188" t="s">
         <v>1502</v>
@@ -22045,7 +22045,7 @@
         <v>17488</v>
       </c>
       <c r="B189" t="n">
-        <v>143069</v>
+        <v>174278</v>
       </c>
       <c r="C189" t="s">
         <v>1511</v>
@@ -22110,7 +22110,7 @@
         <v>17488</v>
       </c>
       <c r="B190" t="n">
-        <v>143070</v>
+        <v>174279</v>
       </c>
       <c r="C190" t="s">
         <v>1518</v>
@@ -22244,7 +22244,7 @@
         <v>17488</v>
       </c>
       <c r="B192" t="n">
-        <v>143071</v>
+        <v>174280</v>
       </c>
       <c r="C192" t="s">
         <v>1533</v>
@@ -22315,7 +22315,7 @@
         <v>17488</v>
       </c>
       <c r="B193" t="n">
-        <v>143072</v>
+        <v>174281</v>
       </c>
       <c r="C193" t="s">
         <v>1540</v>
@@ -22380,7 +22380,7 @@
         <v>17488</v>
       </c>
       <c r="B194" t="n">
-        <v>143073</v>
+        <v>174282</v>
       </c>
       <c r="C194" t="s">
         <v>1549</v>
@@ -22445,7 +22445,7 @@
         <v>17488</v>
       </c>
       <c r="B195" t="n">
-        <v>143074</v>
+        <v>174283</v>
       </c>
       <c r="C195" t="s">
         <v>1558</v>
@@ -22510,7 +22510,7 @@
         <v>17488</v>
       </c>
       <c r="B196" t="n">
-        <v>143075</v>
+        <v>174284</v>
       </c>
       <c r="C196" t="s">
         <v>1564</v>
@@ -22579,7 +22579,7 @@
         <v>17488</v>
       </c>
       <c r="B197" t="n">
-        <v>143076</v>
+        <v>174285</v>
       </c>
       <c r="C197" t="s">
         <v>1572</v>
@@ -22644,7 +22644,7 @@
         <v>17488</v>
       </c>
       <c r="B198" t="n">
-        <v>143077</v>
+        <v>174286</v>
       </c>
       <c r="C198" t="s">
         <v>1581</v>
@@ -22711,7 +22711,7 @@
         <v>17488</v>
       </c>
       <c r="B199" t="n">
-        <v>143078</v>
+        <v>174287</v>
       </c>
       <c r="C199" t="s">
         <v>1589</v>
@@ -22780,7 +22780,7 @@
         <v>17488</v>
       </c>
       <c r="B200" t="n">
-        <v>143079</v>
+        <v>174288</v>
       </c>
       <c r="C200" t="s">
         <v>1598</v>
@@ -22845,7 +22845,7 @@
         <v>17488</v>
       </c>
       <c r="B201" t="n">
-        <v>143080</v>
+        <v>174289</v>
       </c>
       <c r="C201" t="s">
         <v>1605</v>
@@ -22910,7 +22910,7 @@
         <v>17488</v>
       </c>
       <c r="B202" t="n">
-        <v>143081</v>
+        <v>174290</v>
       </c>
       <c r="C202" t="s">
         <v>1612</v>
@@ -22975,7 +22975,7 @@
         <v>17488</v>
       </c>
       <c r="B203" t="n">
-        <v>143082</v>
+        <v>174291</v>
       </c>
       <c r="C203" t="s">
         <v>1621</v>
@@ -23044,7 +23044,7 @@
         <v>17488</v>
       </c>
       <c r="B204" t="n">
-        <v>143083</v>
+        <v>174292</v>
       </c>
       <c r="C204" t="s">
         <v>1630</v>
@@ -23113,7 +23113,7 @@
         <v>17488</v>
       </c>
       <c r="B205" t="n">
-        <v>143084</v>
+        <v>174293</v>
       </c>
       <c r="C205" t="s">
         <v>1640</v>
@@ -23184,7 +23184,7 @@
         <v>17488</v>
       </c>
       <c r="B206" t="n">
-        <v>143085</v>
+        <v>174294</v>
       </c>
       <c r="C206" t="s">
         <v>1646</v>
@@ -23249,7 +23249,7 @@
         <v>17488</v>
       </c>
       <c r="B207" t="n">
-        <v>143086</v>
+        <v>174295</v>
       </c>
       <c r="C207" t="s">
         <v>1655</v>
@@ -23379,7 +23379,7 @@
         <v>17488</v>
       </c>
       <c r="B209" t="n">
-        <v>143087</v>
+        <v>174296</v>
       </c>
       <c r="C209" t="s">
         <v>1667</v>
@@ -23444,7 +23444,7 @@
         <v>17488</v>
       </c>
       <c r="B210" t="n">
-        <v>143088</v>
+        <v>174297</v>
       </c>
       <c r="C210" t="s">
         <v>1675</v>
@@ -23509,7 +23509,7 @@
         <v>17488</v>
       </c>
       <c r="B211" t="n">
-        <v>143089</v>
+        <v>174298</v>
       </c>
       <c r="C211" t="s">
         <v>1684</v>
@@ -23578,7 +23578,7 @@
         <v>17488</v>
       </c>
       <c r="B212" t="n">
-        <v>143090</v>
+        <v>174299</v>
       </c>
       <c r="C212" t="s">
         <v>1691</v>
@@ -23714,7 +23714,7 @@
         <v>17488</v>
       </c>
       <c r="B214" t="n">
-        <v>143091</v>
+        <v>142988</v>
       </c>
       <c r="C214" t="s">
         <v>1707</v>
@@ -23779,7 +23779,7 @@
         <v>17488</v>
       </c>
       <c r="B215" t="n">
-        <v>143092</v>
+        <v>174300</v>
       </c>
       <c r="C215" t="s">
         <v>1712</v>
@@ -23844,7 +23844,7 @@
         <v>17488</v>
       </c>
       <c r="B216" t="n">
-        <v>143093</v>
+        <v>174301</v>
       </c>
       <c r="C216" t="s">
         <v>1720</v>
@@ -23980,7 +23980,7 @@
         <v>17488</v>
       </c>
       <c r="B218" t="n">
-        <v>143094</v>
+        <v>174302</v>
       </c>
       <c r="C218" t="s">
         <v>1734</v>
@@ -24045,7 +24045,7 @@
         <v>17488</v>
       </c>
       <c r="B219" t="n">
-        <v>143095</v>
+        <v>174303</v>
       </c>
       <c r="C219" t="s">
         <v>1741</v>
@@ -24110,7 +24110,7 @@
         <v>17488</v>
       </c>
       <c r="B220" t="n">
-        <v>143096</v>
+        <v>174304</v>
       </c>
       <c r="C220" t="s">
         <v>1748</v>
@@ -24246,7 +24246,7 @@
         <v>17488</v>
       </c>
       <c r="B222" t="n">
-        <v>143097</v>
+        <v>174305</v>
       </c>
       <c r="C222" t="s">
         <v>1762</v>
@@ -24311,7 +24311,7 @@
         <v>17488</v>
       </c>
       <c r="B223" t="n">
-        <v>143098</v>
+        <v>174306</v>
       </c>
       <c r="C223" t="s">
         <v>1768</v>
@@ -24376,7 +24376,7 @@
         <v>17488</v>
       </c>
       <c r="B224" t="n">
-        <v>143099</v>
+        <v>174307</v>
       </c>
       <c r="C224" t="s">
         <v>1775</v>
@@ -24441,7 +24441,7 @@
         <v>17488</v>
       </c>
       <c r="B225" t="n">
-        <v>143100</v>
+        <v>174308</v>
       </c>
       <c r="C225" t="s">
         <v>1784</v>
@@ -24506,7 +24506,7 @@
         <v>17488</v>
       </c>
       <c r="B226" t="n">
-        <v>143101</v>
+        <v>174309</v>
       </c>
       <c r="C226" t="s">
         <v>1791</v>
@@ -24577,7 +24577,7 @@
         <v>17488</v>
       </c>
       <c r="B227" t="n">
-        <v>143102</v>
+        <v>174310</v>
       </c>
       <c r="C227" t="s">
         <v>1798</v>
@@ -24642,7 +24642,7 @@
         <v>17488</v>
       </c>
       <c r="B228" t="n">
-        <v>143103</v>
+        <v>174311</v>
       </c>
       <c r="C228" t="s">
         <v>1805</v>
@@ -24707,7 +24707,7 @@
         <v>17488</v>
       </c>
       <c r="B229" t="n">
-        <v>143104</v>
+        <v>174312</v>
       </c>
       <c r="C229" t="s">
         <v>1811</v>
@@ -24772,7 +24772,7 @@
         <v>17488</v>
       </c>
       <c r="B230" t="n">
-        <v>143105</v>
+        <v>174313</v>
       </c>
       <c r="C230" t="s">
         <v>1820</v>
@@ -24837,7 +24837,7 @@
         <v>17488</v>
       </c>
       <c r="B231" t="n">
-        <v>143106</v>
+        <v>174314</v>
       </c>
       <c r="C231" t="s">
         <v>1829</v>
@@ -24906,7 +24906,7 @@
         <v>17488</v>
       </c>
       <c r="B232" t="n">
-        <v>143107</v>
+        <v>174315</v>
       </c>
       <c r="C232" t="s">
         <v>1836</v>
@@ -24977,7 +24977,7 @@
         <v>17488</v>
       </c>
       <c r="B233" t="n">
-        <v>142953</v>
+        <v>142970</v>
       </c>
       <c r="C233" t="s">
         <v>338</v>
@@ -25042,7 +25042,7 @@
         <v>17488</v>
       </c>
       <c r="B234" t="n">
-        <v>143108</v>
+        <v>174316</v>
       </c>
       <c r="C234" t="s">
         <v>1849</v>
@@ -25111,7 +25111,7 @@
         <v>17488</v>
       </c>
       <c r="B235" t="n">
-        <v>143109</v>
+        <v>174317</v>
       </c>
       <c r="C235" t="s">
         <v>1855</v>
@@ -25176,7 +25176,7 @@
         <v>17488</v>
       </c>
       <c r="B236" t="n">
-        <v>143110</v>
+        <v>174318</v>
       </c>
       <c r="C236" t="s">
         <v>1863</v>
@@ -25442,7 +25442,7 @@
         <v>17488</v>
       </c>
       <c r="B240" t="n">
-        <v>143111</v>
+        <v>174319</v>
       </c>
       <c r="C240" t="s">
         <v>1895</v>
@@ -25507,7 +25507,7 @@
         <v>17488</v>
       </c>
       <c r="B241" t="n">
-        <v>143112</v>
+        <v>174320</v>
       </c>
       <c r="C241" t="s">
         <v>1902</v>
@@ -25578,7 +25578,7 @@
         <v>17488</v>
       </c>
       <c r="B242" t="n">
-        <v>143113</v>
+        <v>174321</v>
       </c>
       <c r="C242" t="s">
         <v>1910</v>
@@ -25643,7 +25643,7 @@
         <v>17488</v>
       </c>
       <c r="B243" t="n">
-        <v>143114</v>
+        <v>174322</v>
       </c>
       <c r="C243" t="s">
         <v>1919</v>
@@ -25708,7 +25708,7 @@
         <v>17488</v>
       </c>
       <c r="B244" t="n">
-        <v>143115</v>
+        <v>174323</v>
       </c>
       <c r="C244" t="s">
         <v>1925</v>
@@ -25773,7 +25773,7 @@
         <v>17488</v>
       </c>
       <c r="B245" t="n">
-        <v>143116</v>
+        <v>174324</v>
       </c>
       <c r="C245" t="s">
         <v>1931</v>
@@ -25838,7 +25838,7 @@
         <v>17488</v>
       </c>
       <c r="B246" t="n">
-        <v>143117</v>
+        <v>174325</v>
       </c>
       <c r="C246" t="s">
         <v>1938</v>
@@ -25909,7 +25909,7 @@
         <v>17488</v>
       </c>
       <c r="B247" t="n">
-        <v>143118</v>
+        <v>174326</v>
       </c>
       <c r="C247" t="s">
         <v>1944</v>
@@ -25974,7 +25974,7 @@
         <v>17488</v>
       </c>
       <c r="B248" t="n">
-        <v>143119</v>
+        <v>174327</v>
       </c>
       <c r="C248" t="s">
         <v>1951</v>
@@ -26045,7 +26045,7 @@
         <v>17488</v>
       </c>
       <c r="B249" t="n">
-        <v>143120</v>
+        <v>174328</v>
       </c>
       <c r="C249" t="s">
         <v>1960</v>
@@ -26110,7 +26110,7 @@
         <v>17488</v>
       </c>
       <c r="B250" t="n">
-        <v>142991</v>
+        <v>142974</v>
       </c>
       <c r="C250" t="s">
         <v>726</v>
@@ -26175,7 +26175,7 @@
         <v>17488</v>
       </c>
       <c r="B251" t="n">
-        <v>143121</v>
+        <v>174329</v>
       </c>
       <c r="C251" t="s">
         <v>1976</v>
@@ -26240,7 +26240,7 @@
         <v>17488</v>
       </c>
       <c r="B252" t="n">
-        <v>143122</v>
+        <v>174330</v>
       </c>
       <c r="C252" t="s">
         <v>1982</v>
@@ -26305,7 +26305,7 @@
         <v>17488</v>
       </c>
       <c r="B253" t="n">
-        <v>143123</v>
+        <v>174331</v>
       </c>
       <c r="C253" t="s">
         <v>1989</v>
@@ -26587,7 +26587,7 @@
         <v>17488</v>
       </c>
       <c r="B257" t="n">
-        <v>143124</v>
+        <v>174332</v>
       </c>
       <c r="C257" t="s">
         <v>2017</v>
@@ -26652,7 +26652,7 @@
         <v>17488</v>
       </c>
       <c r="B258" t="n">
-        <v>143125</v>
+        <v>174333</v>
       </c>
       <c r="C258" t="s">
         <v>2025</v>
@@ -26723,7 +26723,7 @@
         <v>17488</v>
       </c>
       <c r="B259" t="n">
-        <v>143126</v>
+        <v>174334</v>
       </c>
       <c r="C259" t="s">
         <v>2033</v>
@@ -26859,7 +26859,7 @@
         <v>17488</v>
       </c>
       <c r="B261" t="n">
-        <v>143127</v>
+        <v>174335</v>
       </c>
       <c r="C261" t="s">
         <v>2050</v>
@@ -26989,7 +26989,7 @@
         <v>17488</v>
       </c>
       <c r="B263" t="n">
-        <v>143024</v>
+        <v>142980</v>
       </c>
       <c r="C263" t="s">
         <v>1063</v>
@@ -27054,7 +27054,7 @@
         <v>17488</v>
       </c>
       <c r="B264" t="n">
-        <v>143128</v>
+        <v>174336</v>
       </c>
       <c r="C264" t="s">
         <v>2072</v>
@@ -27119,7 +27119,7 @@
         <v>17488</v>
       </c>
       <c r="B265" t="n">
-        <v>143129</v>
+        <v>142992</v>
       </c>
       <c r="C265" t="s">
         <v>2081</v>
@@ -27184,7 +27184,7 @@
         <v>17488</v>
       </c>
       <c r="B266" t="n">
-        <v>143130</v>
+        <v>174337</v>
       </c>
       <c r="C266" t="s">
         <v>2087</v>
@@ -27249,7 +27249,7 @@
         <v>17488</v>
       </c>
       <c r="B267" t="n">
-        <v>143131</v>
+        <v>174338</v>
       </c>
       <c r="C267" t="s">
         <v>2095</v>
@@ -27383,7 +27383,7 @@
         <v>17488</v>
       </c>
       <c r="B269" t="n">
-        <v>143132</v>
+        <v>174339</v>
       </c>
       <c r="C269" t="s">
         <v>2109</v>
@@ -27448,7 +27448,7 @@
         <v>17488</v>
       </c>
       <c r="B270" t="n">
-        <v>143133</v>
+        <v>174340</v>
       </c>
       <c r="C270" t="s">
         <v>2118</v>
@@ -27513,7 +27513,7 @@
         <v>17488</v>
       </c>
       <c r="B271" t="n">
-        <v>143134</v>
+        <v>174341</v>
       </c>
       <c r="C271" t="s">
         <v>2125</v>
@@ -27578,7 +27578,7 @@
         <v>17488</v>
       </c>
       <c r="B272" t="n">
-        <v>143135</v>
+        <v>174342</v>
       </c>
       <c r="C272" t="s">
         <v>2131</v>
@@ -27647,7 +27647,7 @@
         <v>17488</v>
       </c>
       <c r="B273" t="n">
-        <v>143136</v>
+        <v>174343</v>
       </c>
       <c r="C273" t="s">
         <v>2139</v>
@@ -27842,7 +27842,7 @@
         <v>17488</v>
       </c>
       <c r="B276" t="n">
-        <v>143137</v>
+        <v>174344</v>
       </c>
       <c r="C276" t="s">
         <v>2162</v>
@@ -27907,7 +27907,7 @@
         <v>17488</v>
       </c>
       <c r="B277" t="n">
-        <v>143138</v>
+        <v>174345</v>
       </c>
       <c r="C277" t="s">
         <v>2171</v>
@@ -28102,7 +28102,7 @@
         <v>17488</v>
       </c>
       <c r="B280" t="n">
-        <v>143139</v>
+        <v>174346</v>
       </c>
       <c r="C280" t="s">
         <v>2196</v>
@@ -28167,7 +28167,7 @@
         <v>17488</v>
       </c>
       <c r="B281" t="n">
-        <v>143140</v>
+        <v>174347</v>
       </c>
       <c r="C281" t="s">
         <v>2205</v>
@@ -28238,7 +28238,7 @@
         <v>17488</v>
       </c>
       <c r="B282" t="n">
-        <v>143141</v>
+        <v>174348</v>
       </c>
       <c r="C282" t="s">
         <v>2212</v>
@@ -28303,7 +28303,7 @@
         <v>17488</v>
       </c>
       <c r="B283" t="n">
-        <v>143142</v>
+        <v>174349</v>
       </c>
       <c r="C283" t="s">
         <v>2221</v>
@@ -28368,7 +28368,7 @@
         <v>17488</v>
       </c>
       <c r="B284" t="n">
-        <v>143143</v>
+        <v>174350</v>
       </c>
       <c r="C284" t="s">
         <v>2230</v>
@@ -28433,7 +28433,7 @@
         <v>17488</v>
       </c>
       <c r="B285" t="n">
-        <v>143144</v>
+        <v>174351</v>
       </c>
       <c r="C285" t="s">
         <v>2239</v>
@@ -28504,7 +28504,7 @@
         <v>17488</v>
       </c>
       <c r="B286" t="n">
-        <v>143145</v>
+        <v>174352</v>
       </c>
       <c r="C286" t="s">
         <v>2248</v>
@@ -28569,7 +28569,7 @@
         <v>17488</v>
       </c>
       <c r="B287" t="n">
-        <v>143146</v>
+        <v>174353</v>
       </c>
       <c r="C287" t="s">
         <v>2255</v>
@@ -28634,7 +28634,7 @@
         <v>17488</v>
       </c>
       <c r="B288" t="n">
-        <v>143147</v>
+        <v>174354</v>
       </c>
       <c r="C288" t="s">
         <v>2261</v>
@@ -28764,7 +28764,7 @@
         <v>17488</v>
       </c>
       <c r="B290" t="n">
-        <v>143148</v>
+        <v>174355</v>
       </c>
       <c r="C290" t="s">
         <v>2276</v>
@@ -28829,7 +28829,7 @@
         <v>17488</v>
       </c>
       <c r="B291" t="n">
-        <v>143149</v>
+        <v>174356</v>
       </c>
       <c r="C291" t="s">
         <v>2285</v>
@@ -28894,7 +28894,7 @@
         <v>17488</v>
       </c>
       <c r="B292" t="n">
-        <v>143150</v>
+        <v>174357</v>
       </c>
       <c r="C292" t="s">
         <v>2292</v>
@@ -29024,7 +29024,7 @@
         <v>17488</v>
       </c>
       <c r="B294" t="n">
-        <v>143151</v>
+        <v>174358</v>
       </c>
       <c r="C294" t="s">
         <v>2308</v>
@@ -29093,7 +29093,7 @@
         <v>17488</v>
       </c>
       <c r="B295" t="n">
-        <v>143152</v>
+        <v>174359</v>
       </c>
       <c r="C295" t="s">
         <v>2315</v>
@@ -29158,7 +29158,7 @@
         <v>17488</v>
       </c>
       <c r="B296" t="n">
-        <v>143153</v>
+        <v>174360</v>
       </c>
       <c r="C296" t="s">
         <v>2323</v>
@@ -29223,7 +29223,7 @@
         <v>17488</v>
       </c>
       <c r="B297" t="n">
-        <v>143154</v>
+        <v>174361</v>
       </c>
       <c r="C297" t="s">
         <v>2332</v>
@@ -29294,7 +29294,7 @@
         <v>17488</v>
       </c>
       <c r="B298" t="n">
-        <v>143090</v>
+        <v>142988</v>
       </c>
       <c r="C298" t="s">
         <v>1707</v>
@@ -29369,7 +29369,7 @@
         <v>17488</v>
       </c>
       <c r="B299" t="n">
-        <v>143155</v>
+        <v>174362</v>
       </c>
       <c r="C299" t="s">
         <v>2347</v>
@@ -29438,7 +29438,7 @@
         <v>17488</v>
       </c>
       <c r="B300" t="n">
-        <v>143156</v>
+        <v>174363</v>
       </c>
       <c r="C300" t="s">
         <v>2356</v>
@@ -29513,7 +29513,7 @@
         <v>17488</v>
       </c>
       <c r="B301" t="n">
-        <v>143157</v>
+        <v>174364</v>
       </c>
       <c r="C301" t="s">
         <v>2363</v>
@@ -29578,7 +29578,7 @@
         <v>17488</v>
       </c>
       <c r="B302" t="n">
-        <v>143158</v>
+        <v>174365</v>
       </c>
       <c r="C302" t="s">
         <v>2372</v>
@@ -29649,7 +29649,7 @@
         <v>17488</v>
       </c>
       <c r="B303" t="n">
-        <v>143159</v>
+        <v>174366</v>
       </c>
       <c r="C303" t="s">
         <v>2381</v>
@@ -29714,7 +29714,7 @@
         <v>17488</v>
       </c>
       <c r="B304" t="n">
-        <v>143160</v>
+        <v>174367</v>
       </c>
       <c r="C304" t="s">
         <v>2388</v>
@@ -29789,7 +29789,7 @@
         <v>17488</v>
       </c>
       <c r="B305" t="n">
-        <v>143161</v>
+        <v>174368</v>
       </c>
       <c r="C305" t="s">
         <v>2395</v>
@@ -29864,7 +29864,7 @@
         <v>17488</v>
       </c>
       <c r="B306" t="n">
-        <v>143162</v>
+        <v>174369</v>
       </c>
       <c r="C306" t="s">
         <v>2402</v>
@@ -30014,7 +30014,7 @@
         <v>17488</v>
       </c>
       <c r="B308" t="n">
-        <v>143163</v>
+        <v>174370</v>
       </c>
       <c r="C308" t="s">
         <v>2414</v>
@@ -30160,7 +30160,7 @@
         <v>17488</v>
       </c>
       <c r="B310" t="n">
-        <v>143164</v>
+        <v>174371</v>
       </c>
       <c r="C310" t="s">
         <v>2430</v>
@@ -30235,7 +30235,7 @@
         <v>17488</v>
       </c>
       <c r="B311" t="n">
-        <v>143165</v>
+        <v>174372</v>
       </c>
       <c r="C311" t="s">
         <v>2437</v>
@@ -30310,7 +30310,7 @@
         <v>17488</v>
       </c>
       <c r="B312" t="n">
-        <v>143166</v>
+        <v>174373</v>
       </c>
       <c r="C312" t="s">
         <v>2446</v>
@@ -30381,7 +30381,7 @@
         <v>17488</v>
       </c>
       <c r="B313" t="n">
-        <v>143167</v>
+        <v>174374</v>
       </c>
       <c r="C313" t="s">
         <v>2455</v>
@@ -30450,7 +30450,7 @@
         <v>17488</v>
       </c>
       <c r="B314" t="n">
-        <v>143168</v>
+        <v>174375</v>
       </c>
       <c r="C314" t="s">
         <v>2464</v>
@@ -30525,7 +30525,7 @@
         <v>17488</v>
       </c>
       <c r="B315" t="n">
-        <v>143169</v>
+        <v>174376</v>
       </c>
       <c r="C315" t="s">
         <v>2471</v>
@@ -30600,7 +30600,7 @@
         <v>17488</v>
       </c>
       <c r="B316" t="n">
-        <v>143170</v>
+        <v>174377</v>
       </c>
       <c r="C316" t="s">
         <v>2477</v>
@@ -30669,7 +30669,7 @@
         <v>17488</v>
       </c>
       <c r="B317" t="n">
-        <v>143171</v>
+        <v>174378</v>
       </c>
       <c r="C317" t="s">
         <v>2483</v>
@@ -30744,7 +30744,7 @@
         <v>17488</v>
       </c>
       <c r="B318" t="n">
-        <v>143172</v>
+        <v>174379</v>
       </c>
       <c r="C318" t="s">
         <v>2490</v>
@@ -30819,7 +30819,7 @@
         <v>17488</v>
       </c>
       <c r="B319" t="n">
-        <v>143173</v>
+        <v>174380</v>
       </c>
       <c r="C319" t="s">
         <v>2496</v>
@@ -30894,7 +30894,7 @@
         <v>17488</v>
       </c>
       <c r="B320" t="n">
-        <v>143174</v>
+        <v>174381</v>
       </c>
       <c r="C320" t="s">
         <v>2502</v>
@@ -30955,7 +30955,7 @@
         <v>17488</v>
       </c>
       <c r="B321" t="n">
-        <v>143175</v>
+        <v>174382</v>
       </c>
       <c r="C321" t="s">
         <v>2509</v>
@@ -31030,7 +31030,7 @@
         <v>17488</v>
       </c>
       <c r="B322" t="n">
-        <v>143176</v>
+        <v>174383</v>
       </c>
       <c r="C322" t="s">
         <v>2518</v>
@@ -31105,7 +31105,7 @@
         <v>17488</v>
       </c>
       <c r="B323" t="n">
-        <v>143177</v>
+        <v>174384</v>
       </c>
       <c r="C323" t="s">
         <v>2526</v>
@@ -31243,7 +31243,7 @@
         <v>17488</v>
       </c>
       <c r="B325" t="n">
-        <v>143128</v>
+        <v>142992</v>
       </c>
       <c r="C325" t="s">
         <v>2081</v>
@@ -31468,7 +31468,7 @@
         <v>17488</v>
       </c>
       <c r="B328" t="n">
-        <v>143178</v>
+        <v>174385</v>
       </c>
       <c r="C328" t="s">
         <v>2563</v>
@@ -31614,7 +31614,7 @@
         <v>17488</v>
       </c>
       <c r="B330" t="n">
-        <v>143179</v>
+        <v>174386</v>
       </c>
       <c r="C330" t="s">
         <v>2576</v>
@@ -31750,7 +31750,7 @@
         <v>17488</v>
       </c>
       <c r="B332" t="n">
-        <v>143180</v>
+        <v>174387</v>
       </c>
       <c r="C332" t="s">
         <v>2592</v>
@@ -31825,7 +31825,7 @@
         <v>17488</v>
       </c>
       <c r="B333" t="n">
-        <v>143181</v>
+        <v>174388</v>
       </c>
       <c r="C333" t="s">
         <v>2599</v>
@@ -31896,7 +31896,7 @@
         <v>17488</v>
       </c>
       <c r="B334" t="n">
-        <v>143182</v>
+        <v>174389</v>
       </c>
       <c r="C334" t="s">
         <v>2606</v>
@@ -31967,7 +31967,7 @@
         <v>17488</v>
       </c>
       <c r="B335" t="n">
-        <v>143183</v>
+        <v>174390</v>
       </c>
       <c r="C335" t="s">
         <v>2612</v>
@@ -32038,7 +32038,7 @@
         <v>17488</v>
       </c>
       <c r="B336" t="n">
-        <v>143184</v>
+        <v>174391</v>
       </c>
       <c r="C336" t="s">
         <v>2621</v>
@@ -32178,7 +32178,7 @@
         <v>17488</v>
       </c>
       <c r="B338" t="n">
-        <v>143185</v>
+        <v>174392</v>
       </c>
       <c r="C338" t="s">
         <v>2635</v>
@@ -32253,7 +32253,7 @@
         <v>17488</v>
       </c>
       <c r="B339" t="n">
-        <v>143186</v>
+        <v>174393</v>
       </c>
       <c r="C339" t="s">
         <v>2642</v>
@@ -32529,7 +32529,7 @@
         <v>17488</v>
       </c>
       <c r="B343" t="n">
-        <v>143187</v>
+        <v>174394</v>
       </c>
       <c r="C343" t="s">
         <v>2672</v>
@@ -32600,7 +32600,7 @@
         <v>17488</v>
       </c>
       <c r="B344" t="n">
-        <v>143188</v>
+        <v>174395</v>
       </c>
       <c r="C344" t="s">
         <v>2679</v>
@@ -32665,7 +32665,7 @@
         <v>17488</v>
       </c>
       <c r="B345" t="n">
-        <v>143189</v>
+        <v>174396</v>
       </c>
       <c r="C345" t="s">
         <v>2688</v>
@@ -32740,7 +32740,7 @@
         <v>17488</v>
       </c>
       <c r="B346" t="n">
-        <v>143190</v>
+        <v>174397</v>
       </c>
       <c r="C346" t="s">
         <v>2695</v>
@@ -32805,7 +32805,7 @@
         <v>17488</v>
       </c>
       <c r="B347" t="n">
-        <v>143191</v>
+        <v>174398</v>
       </c>
       <c r="C347" t="s">
         <v>2701</v>
@@ -32880,7 +32880,7 @@
         <v>17488</v>
       </c>
       <c r="B348" t="n">
-        <v>143192</v>
+        <v>174399</v>
       </c>
       <c r="C348" t="s">
         <v>2708</v>
@@ -32941,7 +32941,7 @@
         <v>17488</v>
       </c>
       <c r="B349" t="n">
-        <v>143193</v>
+        <v>174400</v>
       </c>
       <c r="C349" t="s">
         <v>2715</v>
@@ -33016,7 +33016,7 @@
         <v>17488</v>
       </c>
       <c r="B350" t="n">
-        <v>143194</v>
+        <v>174401</v>
       </c>
       <c r="C350" t="s">
         <v>2721</v>
@@ -33152,7 +33152,7 @@
         <v>17488</v>
       </c>
       <c r="B352" t="n">
-        <v>143195</v>
+        <v>174402</v>
       </c>
       <c r="C352" t="s">
         <v>2736</v>
@@ -33227,7 +33227,7 @@
         <v>17488</v>
       </c>
       <c r="B353" t="n">
-        <v>143196</v>
+        <v>174403</v>
       </c>
       <c r="C353" t="s">
         <v>2745</v>
@@ -33288,7 +33288,7 @@
         <v>17488</v>
       </c>
       <c r="B354" t="n">
-        <v>143197</v>
+        <v>174404</v>
       </c>
       <c r="C354" t="s">
         <v>2754</v>
@@ -33363,7 +33363,7 @@
         <v>17488</v>
       </c>
       <c r="B355" t="n">
-        <v>143198</v>
+        <v>174405</v>
       </c>
       <c r="C355" t="s">
         <v>2764</v>
@@ -33424,7 +33424,7 @@
         <v>17488</v>
       </c>
       <c r="B356" t="n">
-        <v>143199</v>
+        <v>174406</v>
       </c>
       <c r="C356" t="s">
         <v>2771</v>
@@ -33495,7 +33495,7 @@
         <v>17488</v>
       </c>
       <c r="B357" t="n">
-        <v>143200</v>
+        <v>174407</v>
       </c>
       <c r="C357" t="s">
         <v>2780</v>
@@ -33645,7 +33645,7 @@
         <v>17488</v>
       </c>
       <c r="B359" t="n">
-        <v>143201</v>
+        <v>174408</v>
       </c>
       <c r="C359" t="s">
         <v>2794</v>
@@ -33716,7 +33716,7 @@
         <v>17488</v>
       </c>
       <c r="B360" t="n">
-        <v>143202</v>
+        <v>174409</v>
       </c>
       <c r="C360" t="s">
         <v>2802</v>
@@ -33862,7 +33862,7 @@
         <v>17488</v>
       </c>
       <c r="B362" t="n">
-        <v>143203</v>
+        <v>174410</v>
       </c>
       <c r="C362" t="s">
         <v>2815</v>
@@ -33937,7 +33937,7 @@
         <v>17488</v>
       </c>
       <c r="B363" t="n">
-        <v>143204</v>
+        <v>174411</v>
       </c>
       <c r="C363" t="s">
         <v>2824</v>
@@ -34006,7 +34006,7 @@
         <v>17488</v>
       </c>
       <c r="B364" t="n">
-        <v>143205</v>
+        <v>174412</v>
       </c>
       <c r="C364" t="s">
         <v>2833</v>
@@ -34075,7 +34075,7 @@
         <v>17488</v>
       </c>
       <c r="B365" t="n">
-        <v>143206</v>
+        <v>174413</v>
       </c>
       <c r="C365" t="s">
         <v>2840</v>
@@ -34140,7 +34140,7 @@
         <v>17488</v>
       </c>
       <c r="B366" t="n">
-        <v>143207</v>
+        <v>174414</v>
       </c>
       <c r="C366" t="s">
         <v>2849</v>
@@ -34205,7 +34205,7 @@
         <v>17488</v>
       </c>
       <c r="B367" t="n">
-        <v>143208</v>
+        <v>174415</v>
       </c>
       <c r="C367" t="s">
         <v>2857</v>
@@ -34266,7 +34266,7 @@
         <v>17488</v>
       </c>
       <c r="B368" t="n">
-        <v>143209</v>
+        <v>174416</v>
       </c>
       <c r="C368" t="s">
         <v>2864</v>
@@ -34341,7 +34341,7 @@
         <v>17488</v>
       </c>
       <c r="B369" t="n">
-        <v>143210</v>
+        <v>174417</v>
       </c>
       <c r="C369" t="s">
         <v>2873</v>
@@ -34410,7 +34410,7 @@
         <v>17488</v>
       </c>
       <c r="B370" t="n">
-        <v>143211</v>
+        <v>174418</v>
       </c>
       <c r="C370" t="s">
         <v>2880</v>
@@ -34540,7 +34540,7 @@
         <v>17488</v>
       </c>
       <c r="B372" t="n">
-        <v>143212</v>
+        <v>174419</v>
       </c>
       <c r="C372" t="s">
         <v>2896</v>
@@ -34615,7 +34615,7 @@
         <v>17488</v>
       </c>
       <c r="B373" t="n">
-        <v>143213</v>
+        <v>174420</v>
       </c>
       <c r="C373" t="s">
         <v>2903</v>
@@ -34684,7 +34684,7 @@
         <v>17488</v>
       </c>
       <c r="B374" t="n">
-        <v>143214</v>
+        <v>174421</v>
       </c>
       <c r="C374" t="s">
         <v>2912</v>
@@ -34834,7 +34834,7 @@
         <v>17488</v>
       </c>
       <c r="B376" t="n">
-        <v>143215</v>
+        <v>174422</v>
       </c>
       <c r="C376" t="s">
         <v>2927</v>
@@ -34909,7 +34909,7 @@
         <v>17488</v>
       </c>
       <c r="B377" t="n">
-        <v>143216</v>
+        <v>174423</v>
       </c>
       <c r="C377" t="s">
         <v>2933</v>
@@ -34980,7 +34980,7 @@
         <v>17488</v>
       </c>
       <c r="B378" t="n">
-        <v>143217</v>
+        <v>174424</v>
       </c>
       <c r="C378" t="s">
         <v>2941</v>
@@ -35051,7 +35051,7 @@
         <v>17488</v>
       </c>
       <c r="B379" t="n">
-        <v>143218</v>
+        <v>174425</v>
       </c>
       <c r="C379" t="s">
         <v>2950</v>
@@ -35126,7 +35126,7 @@
         <v>17488</v>
       </c>
       <c r="B380" t="n">
-        <v>143219</v>
+        <v>174426</v>
       </c>
       <c r="C380" t="s">
         <v>2957</v>
@@ -35201,7 +35201,7 @@
         <v>17488</v>
       </c>
       <c r="B381" t="n">
-        <v>143220</v>
+        <v>174427</v>
       </c>
       <c r="C381" t="s">
         <v>2963</v>
@@ -35276,7 +35276,7 @@
         <v>17488</v>
       </c>
       <c r="B382" t="n">
-        <v>143221</v>
+        <v>174428</v>
       </c>
       <c r="C382" t="s">
         <v>2971</v>
@@ -35351,7 +35351,7 @@
         <v>17488</v>
       </c>
       <c r="B383" t="n">
-        <v>143222</v>
+        <v>174429</v>
       </c>
       <c r="C383" t="s">
         <v>2979</v>
@@ -35420,7 +35420,7 @@
         <v>17488</v>
       </c>
       <c r="B384" t="n">
-        <v>143223</v>
+        <v>174430</v>
       </c>
       <c r="C384" t="s">
         <v>2987</v>
@@ -35489,7 +35489,7 @@
         <v>17488</v>
       </c>
       <c r="B385" t="n">
-        <v>143224</v>
+        <v>174431</v>
       </c>
       <c r="C385" t="s">
         <v>2996</v>
@@ -35560,7 +35560,7 @@
         <v>17488</v>
       </c>
       <c r="B386" t="n">
-        <v>143225</v>
+        <v>174432</v>
       </c>
       <c r="C386" t="s">
         <v>3005</v>
